--- a/Organisation/Gant v2.xlsx
+++ b/Organisation/Gant v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A02E472D-A9A7-4712-8A8B-FC5D158D855D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AD1E15-513B-42DA-BB7E-DE1CC6F16572}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Description du jalon</t>
-  </si>
-  <si>
-    <t>Tâche 4</t>
   </si>
   <si>
     <t>Tâche 5</t>
@@ -161,9 +158,6 @@
     <t>Ceci est la dernière instruction de cette feuille de calcul.</t>
   </si>
   <si>
-    <t>Station Météo Pi*</t>
-  </si>
-  <si>
     <t>Préparation Raspberry Pi</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t xml:space="preserve">Test sur Raspberry Pi </t>
   </si>
   <si>
-    <t xml:space="preserve">Développement </t>
-  </si>
-  <si>
     <t>Interface Qt/C++</t>
   </si>
   <si>
@@ -224,9 +215,6 @@
     <t>Préparation Soutenance</t>
   </si>
   <si>
-    <t>Récupération données capteur + interface C/C++</t>
-  </si>
-  <si>
     <t xml:space="preserve">Affichage date </t>
   </si>
   <si>
@@ -234,6 +222,39 @@
   </si>
   <si>
     <t>Soutenance blanche 2</t>
+  </si>
+  <si>
+    <t>Phase lunaire</t>
+  </si>
+  <si>
+    <t>Récupération données capteur</t>
+  </si>
+  <si>
+    <t>Intégration des métriques</t>
+  </si>
+  <si>
+    <t>Prévision météorologique</t>
+  </si>
+  <si>
+    <t>Calcul des pression au niveau de la mer</t>
+  </si>
+  <si>
+    <t>Actualisation des métriques</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Interface C/C++</t>
+  </si>
+  <si>
+    <t>Affichage jour/nuit</t>
+  </si>
+  <si>
+    <t>Station Météo: Weather  Pi*</t>
+  </si>
+  <si>
+    <t>Alix Dumay &amp; Mehdi Taguema</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1213,7 @@
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1391,6 +1412,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1425,7 +1455,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
@@ -1481,7 +1511,116 @@
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1936,20 +2075,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="totalRow" dxfId="28"/>
-      <tableStyleElement type="firstColumn" dxfId="27"/>
-      <tableStyleElement type="lastColumn" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="secondRowStripe" dxfId="24"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2059,7 +2198,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>75</xdr:col>
-          <xdr:colOff>457199</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
@@ -2102,8 +2241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Jalons" displayName="Jalons" ref="B7:G36">
-  <autoFilter ref="B7:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Jalons" displayName="Jalons" ref="B7:G40">
+  <autoFilter ref="B7:G40" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2112,12 +2251,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Description du jalon" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Catégorie" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Affecté à" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Description du jalon" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Catégorie" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Affecté à" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Début" totalsRowDxfId="15" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="Nombre de jours" totalsRowFunction="sum" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Début" totalsRowDxfId="20" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="Nombre de jours" totalsRowFunction="sum" totalsRowDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2394,10 +2533,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM39"/>
+  <dimension ref="A1:BM43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="89" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31:AD31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="95" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2422,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C1" s="54"/>
       <c r="D1" s="55"/>
@@ -2431,7 +2570,7 @@
       <c r="G1" s="57"/>
       <c r="H1" s="56"/>
       <c r="I1" s="58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="59"/>
       <c r="K1" s="56"/>
@@ -2501,40 +2640,40 @@
       <c r="F2" s="12"/>
       <c r="G2" s="10"/>
       <c r="H2" s="41"/>
-      <c r="I2" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
+      <c r="I2" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="41"/>
-      <c r="N2" s="88" t="s">
+      <c r="N2" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="89" t="s">
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
       <c r="AB2" s="41"/>
-      <c r="AC2" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
+      <c r="AC2" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
       <c r="AG2" s="63"/>
       <c r="AH2"/>
       <c r="AI2"/>
@@ -2577,14 +2716,14 @@
         <v>11</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85">
-        <v>43563</v>
-      </c>
-      <c r="G3" s="86"/>
+      <c r="D3" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="86"/>
+      <c r="F3" s="88">
+        <v>43567</v>
+      </c>
+      <c r="G3" s="89"/>
       <c r="H3" s="11"/>
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
@@ -2648,47 +2787,49 @@
       <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="41"/>
-      <c r="D4" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="83"/>
+      <c r="D4" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="86"/>
       <c r="F4" s="32">
         <v>0</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
-      <c r="I4" s="90" t="str">
+      <c r="I4" s="93" t="str">
         <f ca="1">TEXT(I5,"mmmm")</f>
         <v>avril</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG4" s="91"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="94"/>
       <c r="AH4" s="31"/>
       <c r="AI4" s="31"/>
       <c r="AJ4" s="31"/>
@@ -2738,236 +2879,236 @@
       <c r="A5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="35">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>43563</v>
+        <v>43567</v>
       </c>
       <c r="J5" s="36">
         <f ca="1">I5+1</f>
-        <v>43564</v>
+        <v>43568</v>
       </c>
       <c r="K5" s="36">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>43565</v>
+        <v>43569</v>
       </c>
       <c r="L5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43566</v>
+        <v>43570</v>
       </c>
       <c r="M5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43567</v>
+        <v>43571</v>
       </c>
       <c r="N5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43568</v>
+        <v>43572</v>
       </c>
       <c r="O5" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>43569</v>
+        <v>43573</v>
       </c>
       <c r="P5" s="35">
         <f ca="1">O5+1</f>
-        <v>43570</v>
+        <v>43574</v>
       </c>
       <c r="Q5" s="36">
         <f ca="1">P5+1</f>
-        <v>43571</v>
+        <v>43575</v>
       </c>
       <c r="R5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43572</v>
+        <v>43576</v>
       </c>
       <c r="S5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43573</v>
+        <v>43577</v>
       </c>
       <c r="T5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43574</v>
+        <v>43578</v>
       </c>
       <c r="U5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43575</v>
+        <v>43579</v>
       </c>
       <c r="V5" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>43576</v>
+        <v>43580</v>
       </c>
       <c r="W5" s="35">
         <f ca="1">V5+1</f>
-        <v>43577</v>
+        <v>43581</v>
       </c>
       <c r="X5" s="36">
         <f ca="1">W5+1</f>
-        <v>43578</v>
+        <v>43582</v>
       </c>
       <c r="Y5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43579</v>
+        <v>43583</v>
       </c>
       <c r="Z5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43580</v>
+        <v>43584</v>
       </c>
       <c r="AA5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43581</v>
+        <v>43585</v>
       </c>
       <c r="AB5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43582</v>
+        <v>43586</v>
       </c>
       <c r="AC5" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>43583</v>
+        <v>43587</v>
       </c>
       <c r="AD5" s="35">
         <f ca="1">AC5+1</f>
-        <v>43584</v>
+        <v>43588</v>
       </c>
       <c r="AE5" s="36">
         <f ca="1">AD5+1</f>
-        <v>43585</v>
+        <v>43589</v>
       </c>
       <c r="AF5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43586</v>
+        <v>43590</v>
       </c>
       <c r="AG5" s="65">
         <f t="shared" ca="1" si="0"/>
-        <v>43587</v>
+        <v>43591</v>
       </c>
       <c r="AH5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43588</v>
+        <v>43592</v>
       </c>
       <c r="AI5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43589</v>
+        <v>43593</v>
       </c>
       <c r="AJ5" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>43590</v>
+        <v>43594</v>
       </c>
       <c r="AK5" s="35">
         <f ca="1">AJ5+1</f>
-        <v>43591</v>
+        <v>43595</v>
       </c>
       <c r="AL5" s="36">
         <f ca="1">AK5+1</f>
-        <v>43592</v>
+        <v>43596</v>
       </c>
       <c r="AM5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43593</v>
+        <v>43597</v>
       </c>
       <c r="AN5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43594</v>
+        <v>43598</v>
       </c>
       <c r="AO5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43595</v>
+        <v>43599</v>
       </c>
       <c r="AP5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43596</v>
+        <v>43600</v>
       </c>
       <c r="AQ5" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>43597</v>
+        <v>43601</v>
       </c>
       <c r="AR5" s="35">
         <f ca="1">AQ5+1</f>
-        <v>43598</v>
+        <v>43602</v>
       </c>
       <c r="AS5" s="36">
         <f ca="1">AR5+1</f>
-        <v>43599</v>
+        <v>43603</v>
       </c>
       <c r="AT5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43600</v>
+        <v>43604</v>
       </c>
       <c r="AU5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43601</v>
+        <v>43605</v>
       </c>
       <c r="AV5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43602</v>
+        <v>43606</v>
       </c>
       <c r="AW5" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>43603</v>
+        <v>43607</v>
       </c>
       <c r="AX5" s="37">
         <f t="shared" ca="1" si="0"/>
-        <v>43604</v>
+        <v>43608</v>
       </c>
       <c r="AY5" s="35">
         <f ca="1">AX5+1</f>
-        <v>43605</v>
+        <v>43609</v>
       </c>
       <c r="AZ5" s="36">
         <f ca="1">AY5+1</f>
-        <v>43606</v>
+        <v>43610</v>
       </c>
       <c r="BA5" s="36">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>43607</v>
+        <v>43611</v>
       </c>
       <c r="BB5" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>43608</v>
+        <v>43612</v>
       </c>
       <c r="BC5" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>43609</v>
+        <v>43613</v>
       </c>
       <c r="BD5" s="36">
         <f t="shared" ca="1" si="1"/>
-        <v>43610</v>
+        <v>43614</v>
       </c>
       <c r="BE5" s="37">
         <f t="shared" ca="1" si="1"/>
-        <v>43611</v>
+        <v>43615</v>
       </c>
       <c r="BF5" s="35">
         <f ca="1">BE5+1</f>
-        <v>43612</v>
+        <v>43616</v>
       </c>
       <c r="BG5" s="36">
         <f ca="1">BF5+1</f>
-        <v>43613</v>
+        <v>43617</v>
       </c>
       <c r="BH5" s="36">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>43614</v>
+        <v>43618</v>
       </c>
       <c r="BI5" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>43615</v>
+        <v>43619</v>
       </c>
       <c r="BJ5" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>43616</v>
+        <v>43620</v>
       </c>
       <c r="BK5" s="36">
         <f t="shared" ca="1" si="2"/>
-        <v>43617</v>
+        <v>43621</v>
       </c>
       <c r="BL5" s="37">
         <f t="shared" ca="1" si="2"/>
-        <v>43618</v>
+        <v>43622</v>
       </c>
       <c r="BM5"/>
     </row>
@@ -3048,244 +3189,244 @@
         <v>12</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="14" t="str">
         <f t="shared" ref="I7:AN7" ca="1" si="3">LEFT(TEXT(I5,"jjj"),1)</f>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="J7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="K7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="L7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="M7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="N7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="O7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="P7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="Q7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="R7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="S7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="T7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="U7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="V7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="W7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="X7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="Y7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="Z7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AA7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AB7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AC7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AD7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AE7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AF7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AG7" s="67" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AH7" s="50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AI7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AJ7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AK7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AL7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AM7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AN7" s="14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AO7" s="14" t="str">
         <f t="shared" ref="AO7:BL7" ca="1" si="4">LEFT(TEXT(AO5,"jjj"),1)</f>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AP7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AQ7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AR7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AS7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AT7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AU7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AV7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AW7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AX7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AY7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AZ7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BA7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BB7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BC7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BD7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BE7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BF7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="BG7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BH7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BI7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BJ7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BK7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BL7" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BM7"/>
     </row>
@@ -3363,7 +3504,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -3372,7 +3513,7 @@
       <c r="G9" s="34"/>
       <c r="H9" s="15"/>
       <c r="I9" s="26" t="str">
-        <f t="shared" ref="I9:X25" ca="1" si="5">IF(AND($C9="Objectif",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),2,IF(AND($C9="Jalon",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="I9:X16" ca="1" si="5">IF(AND($C9="Objectif",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),2,IF(AND($C9="Jalon",I$5&gt;=$F9,I$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="J9" s="26" t="str">
@@ -3436,7 +3577,7 @@
         <v/>
       </c>
       <c r="Y9" s="26" t="str">
-        <f t="shared" ref="Y9:AN25" ca="1" si="6">IF(AND($C9="Objectif",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),2,IF(AND($C9="Jalon",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="Y9:AN16" ca="1" si="6">IF(AND($C9="Objectif",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),2,IF(AND($C9="Jalon",Y$5&gt;=$F9,Y$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="Z9" s="26" t="str">
@@ -3500,7 +3641,7 @@
         <v/>
       </c>
       <c r="AO9" s="26" t="str">
-        <f t="shared" ref="AO9:BD25" ca="1" si="7">IF(AND($C9="Objectif",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),2,IF(AND($C9="Jalon",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="AO9:BD16" ca="1" si="7">IF(AND($C9="Objectif",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),2,IF(AND($C9="Jalon",AO$5&gt;=$F9,AO$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="AP9" s="26" t="str">
@@ -3564,7 +3705,7 @@
         <v/>
       </c>
       <c r="BE9" s="26" t="str">
-        <f t="shared" ref="BE9:BL25" ca="1" si="8">IF(AND($C9="Objectif",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),2,IF(AND($C9="Jalon",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),1,""))</f>
+        <f t="shared" ref="BE9:BL16" ca="1" si="8">IF(AND($C9="Objectif",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),2,IF(AND($C9="Jalon",BE$5&gt;=$F9,BE$5&lt;=$F9+$G9-1),1,""))</f>
         <v/>
       </c>
       <c r="BF9" s="26" t="str">
@@ -3600,19 +3741,19 @@
     <row r="10" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
       <c r="B10" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="21">
-        <v>43563</v>
+        <v>43567</v>
       </c>
       <c r="G10" s="34">
         <v>1</v>
@@ -3847,24 +3988,24 @@
     <row r="11" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
       <c r="B11" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="20">
         <v>1</v>
       </c>
       <c r="F11" s="21">
-        <v>43563</v>
+        <v>43567</v>
       </c>
       <c r="G11" s="34">
         <v>1</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="26" t="str">
-        <f t="shared" ref="I11:X27" ca="1" si="9">IF(AND($C11="Objectif",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),2,IF(AND($C11="Jalon",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ref="I11:I16" ca="1" si="9">IF(AND($C11="Objectif",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),2,IF(AND($C11="Jalon",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),1,""))</f>
         <v/>
       </c>
       <c r="J11" s="26" t="str">
@@ -4092,17 +4233,17 @@
     <row r="12" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
       <c r="B12" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="20">
         <v>1</v>
       </c>
       <c r="F12" s="21">
-        <v>43563</v>
+        <v>43567</v>
       </c>
       <c r="G12" s="34">
         <v>1</v>
@@ -4334,23 +4475,16 @@
       </c>
       <c r="BM12" s="1"/>
     </row>
-    <row r="13" spans="1:65" s="43" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>17</v>
-      </c>
+    <row r="13" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="21">
-        <f>F10+20</f>
-        <v>43583</v>
-      </c>
-      <c r="G13" s="34">
-        <v>1</v>
-      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="15"/>
       <c r="I13" s="26" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -4432,9 +4566,9 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AC13" s="26">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+      <c r="AC13" s="26" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
       </c>
       <c r="AD13" s="26" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4578,24 +4712,23 @@
       </c>
       <c r="BM13" s="1"/>
     </row>
-    <row r="14" spans="1:65" s="43" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
+    <row r="14" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
       <c r="B14" s="28" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="20">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F14" s="21">
-        <f>F10+6</f>
-        <v>43569</v>
+        <v>43567</v>
       </c>
       <c r="G14" s="34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="26" t="str">
@@ -4825,15 +4958,23 @@
       <c r="BM14" s="1"/>
     </row>
     <row r="15" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="23"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="34"/>
+      <c r="E15" s="20">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21">
+        <v>43570</v>
+      </c>
+      <c r="G15" s="34">
+        <v>2</v>
+      </c>
       <c r="H15" s="15"/>
       <c r="I15" s="26" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -5062,19 +5203,19 @@
       <c r="BM15" s="1"/>
     </row>
     <row r="16" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="20">
         <v>1</v>
       </c>
       <c r="F16" s="21">
-        <v>43563</v>
+        <v>43571</v>
       </c>
       <c r="G16" s="34">
         <v>1</v>
@@ -5308,998 +5449,314 @@
     </row>
     <row r="17" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
-      <c r="B17" s="28" t="s">
-        <v>47</v>
+      <c r="B17" s="80" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="20">
         <v>1</v>
       </c>
       <c r="F17" s="21">
-        <v>43564</v>
+        <v>43572</v>
       </c>
       <c r="G17" s="34">
         <v>2</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="M17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="N17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="O17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Q17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="R17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="S17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="T17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="U17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="V17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="W17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X17" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Z17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AA17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AB17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AC17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AD17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AE17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AF17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AG17" s="70" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AH17" s="52" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AI17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AK17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AM17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AN17" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AO17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AP17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AQ17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AR17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AS17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AT17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AU17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AV17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AW17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AX17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AY17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AZ17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BA17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BB17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BC17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BD17" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BE17" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BF17" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BG17" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BH17" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BI17" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BJ17" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BK17" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BL17" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26"/>
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="26"/>
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="26"/>
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="26"/>
+      <c r="BL17" s="26"/>
       <c r="BM17" s="1"/>
     </row>
     <row r="18" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
-      <c r="B18" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="B18" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="20">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21">
-        <v>43565</v>
-      </c>
-      <c r="G18" s="34">
-        <v>1</v>
-      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="M18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="N18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="O18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Q18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="R18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="S18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="T18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="U18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="V18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="W18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X18" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Z18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AA18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AB18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AC18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AD18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AE18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AF18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AG18" s="70" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AH18" s="52" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AI18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AK18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AM18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AN18" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AO18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AP18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AQ18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AR18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AS18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AT18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AU18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AV18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AW18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AX18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AY18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AZ18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BA18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BB18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BC18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BD18" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BE18" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BF18" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BG18" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BH18" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BI18" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BJ18" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BK18" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BL18" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="26"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="26"/>
+      <c r="BD18" s="26"/>
+      <c r="BE18" s="26"/>
+      <c r="BF18" s="26"/>
+      <c r="BG18" s="26"/>
+      <c r="BH18" s="26"/>
+      <c r="BI18" s="26"/>
+      <c r="BJ18" s="26"/>
+      <c r="BK18" s="26"/>
+      <c r="BL18" s="26"/>
       <c r="BM18" s="1"/>
     </row>
-    <row r="19" spans="1:65" s="43" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68"/>
       <c r="B19" s="28" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="23"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
       <c r="F19" s="21">
-        <f>F18+2</f>
-        <v>43567</v>
+        <v>43570</v>
       </c>
       <c r="G19" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="M19" s="26">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="O19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Q19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="R19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="S19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="T19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="U19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="V19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="W19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X19" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Z19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AA19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AB19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AC19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AD19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AE19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AF19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AG19" s="70" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AH19" s="52" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AI19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AK19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AM19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AN19" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AO19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AP19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AQ19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AR19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AS19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AT19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AU19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AV19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AW19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AX19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AY19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AZ19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BA19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BB19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BC19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BD19" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BE19" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BF19" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BG19" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BH19" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BI19" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BJ19" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BK19" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BL19" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="26"/>
+      <c r="AY19" s="26"/>
+      <c r="AZ19" s="26"/>
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="26"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="26"/>
+      <c r="BE19" s="26"/>
+      <c r="BF19" s="26"/>
+      <c r="BG19" s="26"/>
+      <c r="BH19" s="26"/>
+      <c r="BI19" s="26"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="26"/>
+      <c r="BL19" s="26"/>
       <c r="BM19" s="1"/>
     </row>
-    <row r="20" spans="1:65" s="43" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="68"/>
-      <c r="B20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="23"/>
+      <c r="B20" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
       <c r="F20" s="21">
-        <f>F19+1</f>
-        <v>43568</v>
+        <v>43573</v>
       </c>
       <c r="G20" s="34">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="M20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="N20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="O20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Q20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="R20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="S20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="T20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="U20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="V20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="W20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X20" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Z20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AA20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AB20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AC20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AD20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AE20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AF20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AG20" s="70" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AH20" s="52" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AI20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AK20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AM20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AN20" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AO20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AP20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AQ20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AR20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AS20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AT20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AU20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AV20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AW20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AX20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AY20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AZ20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BA20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BB20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BC20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BD20" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BE20" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BF20" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BG20" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BH20" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BI20" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BJ20" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BK20" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BL20" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="70"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="26"/>
+      <c r="BD20" s="26"/>
+      <c r="BE20" s="26"/>
+      <c r="BF20" s="26"/>
+      <c r="BG20" s="26"/>
+      <c r="BH20" s="26"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="26"/>
+      <c r="BK20" s="26"/>
+      <c r="BL20" s="26"/>
       <c r="BM20" s="1"/>
     </row>
     <row r="21" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
-      <c r="B21" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="B21" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="21">
-        <v>43570</v>
-      </c>
-      <c r="G21" s="34">
-        <v>2</v>
-      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="15"/>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
@@ -6361,245 +5818,85 @@
     </row>
     <row r="22" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68"/>
-      <c r="B22" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="23"/>
+      <c r="B22" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="D22" s="23"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="34"/>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" s="21">
+        <v>43574</v>
+      </c>
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="M22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="N22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="O22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Q22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="R22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="S22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="T22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="U22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="V22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="W22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X22" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Z22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AA22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AB22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AC22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AD22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AE22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AF22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AG22" s="70" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AH22" s="52" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AI22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AK22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AM22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AN22" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AO22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AP22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AQ22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AR22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AS22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AT22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AU22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AV22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AW22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AX22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AY22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AZ22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BA22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BB22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BC22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BD22" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BE22" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BF22" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BG22" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BH22" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BI22" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BJ22" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BK22" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BL22" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="26"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="26"/>
+      <c r="BH22" s="26"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="26"/>
       <c r="BM22" s="1"/>
     </row>
     <row r="23" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68"/>
-      <c r="B23" s="28" t="s">
-        <v>50</v>
+      <c r="B23" s="80" t="s">
+        <v>62</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>18</v>
@@ -6609,1218 +5906,374 @@
         <v>1</v>
       </c>
       <c r="F23" s="21">
-        <v>43566</v>
+        <v>43574</v>
       </c>
       <c r="G23" s="34">
         <v>1</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="M23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="N23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="O23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Q23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="R23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="S23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="T23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="U23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="V23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="W23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X23" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Z23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AA23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AB23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AC23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AD23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AE23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AF23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AG23" s="70" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AH23" s="52" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AI23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AK23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AM23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AN23" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AO23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AP23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AQ23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AR23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AS23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AT23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AU23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AV23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AW23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AX23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AY23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AZ23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BA23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BB23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BC23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BD23" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BE23" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BF23" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BG23" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BH23" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BI23" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BJ23" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BK23" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BL23" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="70"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="26"/>
+      <c r="BG23" s="26"/>
+      <c r="BH23" s="26"/>
+      <c r="BI23" s="26"/>
+      <c r="BJ23" s="26"/>
+      <c r="BK23" s="26"/>
+      <c r="BL23" s="26"/>
       <c r="BM23" s="1"/>
     </row>
     <row r="24" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="68"/>
-      <c r="B24" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="B24" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="20">
-        <v>1</v>
-      </c>
-      <c r="F24" s="21">
-        <v>43567</v>
-      </c>
-      <c r="G24" s="34">
-        <v>4</v>
-      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="M24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="N24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="O24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Q24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="R24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="S24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="T24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="U24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="V24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="W24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X24" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Z24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AA24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AB24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AC24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AD24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AE24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AF24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AG24" s="70" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AH24" s="52" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AI24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AK24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AM24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AN24" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AO24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AP24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AQ24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AR24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AS24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AT24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AU24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AV24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AW24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AX24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AY24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AZ24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BA24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BB24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BC24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BD24" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BE24" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BF24" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BG24" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BH24" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BI24" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BJ24" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BK24" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BL24" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="70"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="26"/>
+      <c r="BG24" s="26"/>
+      <c r="BH24" s="26"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="26"/>
       <c r="BM24" s="1"/>
     </row>
     <row r="25" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68"/>
       <c r="B25" s="28" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="20">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F25" s="21">
-        <v>43570</v>
+        <v>43574</v>
       </c>
       <c r="G25" s="34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="I25" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="K25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="L25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="M25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="N25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="O25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Q25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="R25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="S25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="T25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="U25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="V25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="W25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X25" s="26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="Y25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="Z25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AA25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AB25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AC25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AD25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AE25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AF25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AG25" s="70" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AH25" s="52" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AI25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AJ25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AK25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AM25" s="26" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AN25" s="26" t="str">
-        <f t="shared" ref="AN25:BC36" ca="1" si="10">IF(AND($C25="Objectif",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),2,IF(AND($C25="Jalon",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AP25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AQ25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AR25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AS25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AT25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AU25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AV25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AW25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AX25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AY25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="AZ25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BA25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BB25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BC25" s="26" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="BD25" s="26" t="str">
-        <f t="shared" ref="BD25:BL36" ca="1" si="11">IF(AND($C25="Objectif",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Jalon",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE25" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BF25" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BG25" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BH25" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BI25" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BJ25" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BK25" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BL25" s="26" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="70"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="26"/>
+      <c r="BD25" s="26"/>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="26"/>
+      <c r="BG25" s="26"/>
+      <c r="BH25" s="26"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="26"/>
+      <c r="BL25" s="26"/>
       <c r="BM25" s="1"/>
     </row>
     <row r="26" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="68"/>
-      <c r="B26" s="28" t="s">
-        <v>52</v>
+      <c r="B26" s="80" t="s">
+        <v>61</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="23"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="20">
+        <v>1</v>
+      </c>
       <c r="F26" s="21">
-        <v>43573</v>
+        <v>43578</v>
       </c>
       <c r="G26" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="K26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="L26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="M26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="N26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="O26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="P26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Q26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="R26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="S26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="T26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="U26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="V26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="W26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="X26" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Y26" s="26" t="str">
-        <f t="shared" ref="Y26:AM36" ca="1" si="12">IF(AND($C26="Objectif",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),2,IF(AND($C26="Jalon",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AA26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AB26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AC26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AD26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AE26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AF26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AG26" s="70" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AH26" s="52" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AI26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AJ26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AK26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AL26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM26" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AN26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AO26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AP26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC26" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD26" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BE26" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BF26" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BG26" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BH26" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BI26" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BJ26" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK26" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL26" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="70"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="26"/>
+      <c r="BG26" s="26"/>
+      <c r="BH26" s="26"/>
+      <c r="BI26" s="26"/>
+      <c r="BJ26" s="26"/>
+      <c r="BK26" s="26"/>
+      <c r="BL26" s="26"/>
       <c r="BM26" s="1"/>
     </row>
     <row r="27" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="68"/>
       <c r="B27" s="28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="23"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="20">
+        <v>1</v>
+      </c>
       <c r="F27" s="21">
-        <v>43577</v>
+        <v>43579</v>
       </c>
       <c r="G27" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="J27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="K27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="L27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="M27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="N27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="O27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="P27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Q27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="R27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="S27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="T27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="U27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="V27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="W27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="X27" s="26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="Y27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Z27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AA27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AB27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AC27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AD27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AE27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AF27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AG27" s="70" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AH27" s="52" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AI27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AJ27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AK27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AL27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM27" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AN27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AO27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AP27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC27" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BE27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BF27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BG27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BH27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BI27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BJ27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL27" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="26"/>
+      <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="26"/>
+      <c r="BG27" s="26"/>
+      <c r="BH27" s="26"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="26"/>
+      <c r="BK27" s="26"/>
+      <c r="BL27" s="26"/>
       <c r="BM27" s="1"/>
     </row>
     <row r="28" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="68"/>
-      <c r="B28" s="29" t="s">
-        <v>44</v>
+      <c r="B28" s="95" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -7828,2070 +6281,2370 @@
       <c r="F28" s="21"/>
       <c r="G28" s="34"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="26" t="str">
-        <f t="shared" ref="I28:X36" ca="1" si="13">IF(AND($C28="Objectif",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),2,IF(AND($C28="Jalon",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="L28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="M28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="N28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="O28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="P28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Q28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="R28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="T28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="U28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="V28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="W28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="X28" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Y28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Z28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AA28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AB28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AC28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AD28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AE28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AF28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AG28" s="70" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AH28" s="52" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AI28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AJ28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AK28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AL28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM28" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AN28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AO28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AP28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC28" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BE28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BF28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BG28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BH28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BI28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BJ28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL28" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="26"/>
+      <c r="BD28" s="26"/>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="26"/>
+      <c r="BG28" s="26"/>
+      <c r="BH28" s="26"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="26"/>
+      <c r="BK28" s="26"/>
+      <c r="BL28" s="26"/>
       <c r="BM28" s="1"/>
     </row>
     <row r="29" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="68"/>
       <c r="B29" s="28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="20">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F29" s="21">
-        <v>43563</v>
+        <v>43580</v>
       </c>
       <c r="G29" s="34">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="I29" s="26" t="str">
-        <f t="shared" ref="I29:AN29" ca="1" si="14">IF(AND($C29="Objectif",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),2,IF(AND($C29="Jalon",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="K29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="L29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="M29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="N29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="O29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="P29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="Q29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="R29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="S29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="T29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="U29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="V29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="W29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="X29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="Y29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="Z29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AA29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AB29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AC29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AD29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AE29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AF29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AG29" s="70" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AH29" s="52" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AI29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AJ29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AK29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AL29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AM29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AN29" s="26" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AP29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC29" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BE29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BF29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BG29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BH29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BI29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BJ29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL29" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="26"/>
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+      <c r="BC29" s="26"/>
+      <c r="BD29" s="26"/>
+      <c r="BE29" s="26"/>
+      <c r="BF29" s="26"/>
+      <c r="BG29" s="26"/>
+      <c r="BH29" s="26"/>
+      <c r="BI29" s="26"/>
+      <c r="BJ29" s="26"/>
+      <c r="BK29" s="26"/>
+      <c r="BL29" s="26"/>
       <c r="BM29" s="1"/>
     </row>
     <row r="30" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="68"/>
-      <c r="B30" s="28" t="s">
-        <v>46</v>
+      <c r="B30" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="23"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
       <c r="F30" s="21">
-        <v>43581</v>
+        <v>43580</v>
       </c>
       <c r="G30" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="15"/>
-      <c r="I30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="J30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="L30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="M30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="N30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="O30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="P30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Q30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="R30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="T30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="U30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="V30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="W30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="X30" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Y30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Z30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AA30" s="26">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AB30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AC30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AD30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AE30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AF30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AG30" s="70" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AH30" s="52" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AI30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AJ30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AK30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AL30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM30" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AN30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AO30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AP30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC30" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BE30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BF30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BG30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BH30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BI30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BJ30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL30" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="70"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="26"/>
+      <c r="AY30" s="26"/>
+      <c r="AZ30" s="26"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="26"/>
+      <c r="BC30" s="26"/>
+      <c r="BD30" s="26"/>
+      <c r="BE30" s="26"/>
+      <c r="BF30" s="26"/>
+      <c r="BG30" s="26"/>
+      <c r="BH30" s="26"/>
+      <c r="BI30" s="26"/>
+      <c r="BJ30" s="26"/>
+      <c r="BK30" s="26"/>
+      <c r="BL30" s="26"/>
       <c r="BM30" s="1"/>
     </row>
     <row r="31" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="68"/>
-      <c r="B31" s="28" t="s">
-        <v>55</v>
+      <c r="B31" s="82" t="s">
+        <v>65</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="21">
         <v>43581</v>
       </c>
       <c r="G31" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="J31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="L31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="M31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="N31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="O31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="P31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Q31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="R31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="T31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="U31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="V31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="W31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="X31" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Y31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Z31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AA31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AB31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AC31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AD31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AE31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AF31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AG31" s="70" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AH31" s="52" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AI31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AJ31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AK31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AL31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM31" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AN31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AO31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AP31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC31" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BE31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BF31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BG31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BH31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BI31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BJ31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL31" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26"/>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="26"/>
+      <c r="AU31" s="26"/>
+      <c r="AV31" s="26"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="26"/>
+      <c r="AZ31" s="26"/>
+      <c r="BA31" s="26"/>
+      <c r="BB31" s="26"/>
+      <c r="BC31" s="26"/>
+      <c r="BD31" s="26"/>
+      <c r="BE31" s="26"/>
+      <c r="BF31" s="26"/>
+      <c r="BG31" s="26"/>
+      <c r="BH31" s="26"/>
+      <c r="BI31" s="26"/>
+      <c r="BJ31" s="26"/>
+      <c r="BK31" s="26"/>
+      <c r="BL31" s="26"/>
       <c r="BM31" s="1"/>
     </row>
     <row r="32" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="68"/>
-      <c r="B32" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>21</v>
-      </c>
+      <c r="B32" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="23"/>
       <c r="D32" s="23"/>
-      <c r="E32" s="20">
-        <v>0</v>
-      </c>
-      <c r="F32" s="21">
-        <v>43584</v>
-      </c>
-      <c r="G32" s="34">
-        <v>3</v>
-      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="15"/>
       <c r="I32" s="26" t="str">
+        <f t="shared" ref="I32:X40" ca="1" si="10">IF(AND($C32="Objectif",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),2,IF(AND($C32="Jalon",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="K32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="P32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X32" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y32" s="26" t="str">
+        <f t="shared" ref="Y32:AM40" ca="1" si="11">IF(AND($C32="Objectif",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),2,IF(AND($C32="Jalon",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Z32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AC32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AD32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AE32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AG32" s="70" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AH32" s="52" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AI32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AK32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AL32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AM32" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AN32" s="26" t="str">
+        <f t="shared" ref="AN32:BC40" ca="1" si="12">IF(AND($C32="Objectif",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),2,IF(AND($C32="Jalon",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AP32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AQ32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AR32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AS32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AT32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AU32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AV32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AW32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AX32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AY32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AZ32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BA32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BB32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BC32" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BD32" s="26" t="str">
+        <f t="shared" ref="BD32:BL40" ca="1" si="13">IF(AND($C32="Objectif",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Jalon",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BE32" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="J32" s="26" t="str">
+      <c r="BF32" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="K32" s="26" t="str">
+      <c r="BG32" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="L32" s="26" t="str">
+      <c r="BH32" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="M32" s="26" t="str">
+      <c r="BI32" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="N32" s="26" t="str">
+      <c r="BJ32" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="O32" s="26" t="str">
+      <c r="BK32" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="P32" s="26" t="str">
+      <c r="BL32" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Q32" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="R32" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S32" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="T32" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="U32" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="V32" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="W32" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="X32" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Y32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Z32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AA32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AB32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AC32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AD32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AE32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AF32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AG32" s="70" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AH32" s="52" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AI32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AJ32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AK32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AL32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM32" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AN32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AO32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AP32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC32" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BE32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BF32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BG32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BH32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BI32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BJ32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL32" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="BM32" s="1"/>
     </row>
     <row r="33" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="68"/>
-      <c r="B33" s="92" t="s">
-        <v>59</v>
+      <c r="B33" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="23"/>
-      <c r="E33" s="20"/>
+      <c r="E33" s="20">
+        <v>1</v>
+      </c>
       <c r="F33" s="21">
-        <v>43573</v>
+        <v>43567</v>
       </c>
       <c r="G33" s="34">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="26" t="str">
+        <f t="shared" ref="I33:AN33" ca="1" si="14">IF(AND($C33="Objectif",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Jalon",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="J33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="K33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="L33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="M33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="N33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="O33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="P33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Q33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="R33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="S33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="T33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="U33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="V33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="W33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="X33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Y33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Z33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AA33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AB33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AC33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AD33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AE33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AF33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AG33" s="70" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AH33" s="52" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AI33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AK33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AL33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AM33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AN33" s="26" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AP33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AQ33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AR33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AS33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AT33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AU33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AV33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AW33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AX33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AY33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AZ33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BA33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BB33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BC33" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BD33" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="J33" s="26" t="str">
+      <c r="BE33" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="K33" s="26" t="str">
+      <c r="BF33" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="L33" s="26" t="str">
+      <c r="BG33" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="M33" s="26" t="str">
+      <c r="BH33" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="N33" s="26" t="str">
+      <c r="BI33" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="O33" s="26" t="str">
+      <c r="BJ33" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="P33" s="26" t="str">
+      <c r="BK33" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="Q33" s="26" t="str">
+      <c r="BL33" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="R33" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S33" s="26">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="T33" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="U33" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="V33" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="W33" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="X33" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Y33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Z33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AA33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AB33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AC33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AD33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AE33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AF33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AG33" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="26"/>
-      <c r="AL33" s="26"/>
-      <c r="AM33" s="26"/>
-      <c r="AN33" s="26"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="26"/>
-      <c r="AR33" s="26"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="AU33" s="26"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="26"/>
-      <c r="AY33" s="26"/>
-      <c r="AZ33" s="26"/>
-      <c r="BA33" s="26"/>
-      <c r="BB33" s="26"/>
-      <c r="BC33" s="26"/>
-      <c r="BD33" s="26"/>
-      <c r="BE33" s="26"/>
-      <c r="BF33" s="26"/>
-      <c r="BG33" s="26"/>
-      <c r="BH33" s="26"/>
-      <c r="BI33" s="26"/>
-      <c r="BJ33" s="26"/>
-      <c r="BK33" s="26"/>
-      <c r="BL33" s="26"/>
       <c r="BM33" s="1"/>
     </row>
     <row r="34" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="68"/>
-      <c r="B34" s="92" t="s">
-        <v>60</v>
+      <c r="B34" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="20"/>
       <c r="F34" s="21">
-        <v>43580</v>
+        <v>43581</v>
       </c>
       <c r="G34" s="34">
         <v>1</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="K34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="P34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W34" s="26">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X34" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AC34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AD34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AE34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AG34" s="70" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AH34" s="52" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AI34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AK34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AL34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AM34" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AN34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AO34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AP34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AQ34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AR34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AS34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AT34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AU34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AV34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AW34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AX34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AY34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AZ34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BA34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BB34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BC34" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BD34" s="26" t="str">
         <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="J34" s="26" t="str">
-        <f t="shared" ref="J34:AG34" ca="1" si="15">IF(AND($C34="Objectif",J$5&gt;=$F34,J$5&lt;=$F34+$G34-1),2,IF(AND($C34="Jalon",J$5&gt;=$F34,J$5&lt;=$F34+$G34-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K34" s="26" t="str">
+      <c r="BE34" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BF34" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BG34" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BH34" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BI34" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BJ34" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BK34" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BL34" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BM34" s="1"/>
+    </row>
+    <row r="35" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="68"/>
+      <c r="B35" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="20">
+        <v>1</v>
+      </c>
+      <c r="F35" s="21">
+        <v>43581</v>
+      </c>
+      <c r="G35" s="34">
+        <v>4</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="K35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="P35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X35" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AC35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AD35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AE35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AG35" s="70" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AH35" s="52" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AI35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AK35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AL35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AM35" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AN35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AO35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AP35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AQ35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AR35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AS35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AT35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AU35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AV35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AW35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AX35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AY35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AZ35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BA35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BB35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BC35" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BD35" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BE35" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BF35" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BG35" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BH35" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BI35" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BJ35" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BK35" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BL35" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BM35" s="1"/>
+    </row>
+    <row r="36" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="68"/>
+      <c r="B36" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="20">
+        <v>1</v>
+      </c>
+      <c r="F36" s="21">
+        <v>43584</v>
+      </c>
+      <c r="G36" s="34">
+        <v>3</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="K36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="P36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X36" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AC36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AD36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AE36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AG36" s="70" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AH36" s="52" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AI36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AK36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AL36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AM36" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AN36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AO36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AP36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AQ36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AR36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AS36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AT36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AU36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AV36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AW36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AX36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AY36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AZ36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BA36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BB36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BC36" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BD36" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BE36" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BF36" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BG36" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BH36" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BI36" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BJ36" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BK36" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BL36" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BM36" s="1"/>
+    </row>
+    <row r="37" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="68"/>
+      <c r="B37" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21">
+        <v>43573</v>
+      </c>
+      <c r="G37" s="34">
+        <v>1</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="K37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O37" s="26">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X37" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y37" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z37" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA37" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB37" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AC37" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AD37" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AE37" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF37" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AG37" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="26"/>
+      <c r="AN37" s="26"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="26"/>
+      <c r="AQ37" s="26"/>
+      <c r="AR37" s="26"/>
+      <c r="AS37" s="26"/>
+      <c r="AT37" s="26"/>
+      <c r="AU37" s="26"/>
+      <c r="AV37" s="26"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="26"/>
+      <c r="AY37" s="26"/>
+      <c r="AZ37" s="26"/>
+      <c r="BA37" s="26"/>
+      <c r="BB37" s="26"/>
+      <c r="BC37" s="26"/>
+      <c r="BD37" s="26"/>
+      <c r="BE37" s="26"/>
+      <c r="BF37" s="26"/>
+      <c r="BG37" s="26"/>
+      <c r="BH37" s="26"/>
+      <c r="BI37" s="26"/>
+      <c r="BJ37" s="26"/>
+      <c r="BK37" s="26"/>
+      <c r="BL37" s="26"/>
+      <c r="BM37" s="1"/>
+    </row>
+    <row r="38" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="68"/>
+      <c r="B38" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21">
+        <v>43580</v>
+      </c>
+      <c r="G38" s="34">
+        <v>1</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J38" s="26" t="str">
+        <f t="shared" ref="J38:AG38" ca="1" si="15">IF(AND($C38="Objectif",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1),2,IF(AND($C38="Jalon",J$5&gt;=$F38,J$5&lt;=$F38+$G38-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="L34" s="26" t="str">
+      <c r="L38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="M34" s="26" t="str">
+      <c r="M38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="N34" s="26" t="str">
+      <c r="N38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="O34" s="26" t="str">
+      <c r="O38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="P34" s="26" t="str">
+      <c r="P38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="Q34" s="26" t="str">
+      <c r="Q38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="R34" s="26" t="str">
+      <c r="R38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="S34" s="26" t="str">
+      <c r="S38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="T34" s="26" t="str">
+      <c r="T38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="U34" s="26" t="str">
+      <c r="U38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="V34" s="26" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="W34" s="26" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="X34" s="26" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="Y34" s="26" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="Z34" s="26">
+      <c r="V38" s="26">
         <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
-      <c r="AA34" s="26" t="str">
+      <c r="W38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AB34" s="26" t="str">
+      <c r="X38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AC34" s="26" t="str">
+      <c r="Y38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AD34" s="26" t="str">
+      <c r="Z38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AE34" s="26" t="str">
+      <c r="AA38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AF34" s="26" t="str">
+      <c r="AB38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AG34" s="26" t="str">
+      <c r="AC38" s="26" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="26"/>
-      <c r="AM34" s="26"/>
-      <c r="AN34" s="26"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="26"/>
-      <c r="AQ34" s="26"/>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26"/>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="26"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26"/>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="26"/>
-      <c r="BL34" s="26"/>
-      <c r="BM34" s="1"/>
+      <c r="AD38" s="26" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AE38" s="26" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AF38" s="26" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AG38" s="26" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="26"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="26"/>
+      <c r="AU38" s="26"/>
+      <c r="AV38" s="26"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="26"/>
+      <c r="AY38" s="26"/>
+      <c r="AZ38" s="26"/>
+      <c r="BA38" s="26"/>
+      <c r="BB38" s="26"/>
+      <c r="BC38" s="26"/>
+      <c r="BD38" s="26"/>
+      <c r="BE38" s="26"/>
+      <c r="BF38" s="26"/>
+      <c r="BG38" s="26"/>
+      <c r="BH38" s="26"/>
+      <c r="BI38" s="26"/>
+      <c r="BJ38" s="26"/>
+      <c r="BK38" s="26"/>
+      <c r="BL38" s="26"/>
+      <c r="BM38" s="1"/>
     </row>
-    <row r="35" spans="1:65" s="43" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="28" t="s">
+    <row r="39" spans="1:65" s="43" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="68"/>
+      <c r="B39" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="K39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="P39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X39" s="26" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AC39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AD39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AE39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AG39" s="70" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AH39" s="52" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AI39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AK39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AL39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AM39" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AN39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AO39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AP39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AQ39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AR39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AS39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AT39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AU39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AV39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AW39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AX39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AY39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AZ39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BA39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BB39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BC39" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BD39" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BE39" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BF39" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BG39" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BH39" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BI39" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BJ39" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BK39" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BL39" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BM39" s="1"/>
+    </row>
+    <row r="40" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="73"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="75">
+        <v>43587</v>
+      </c>
+      <c r="G40" s="76">
+        <v>1</v>
+      </c>
+      <c r="H40" s="77"/>
+      <c r="I40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="J40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="K40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="L40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="M40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="N40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="P40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Q40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="R40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="T40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="U40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="V40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="W40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="X40" s="78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="Y40" s="78" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z40" s="78" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA40" s="78" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB40" s="78" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AC40" s="78">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AD40" s="78" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AE40" s="78" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AF40" s="78" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AG40" s="79" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AH40" s="52" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AI40" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AJ40" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AK40" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AL40" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AM40" s="26" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AN40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AO40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AP40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AQ40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AR40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AS40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AT40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AU40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AV40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AW40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AX40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AY40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AZ40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BA40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BB40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BC40" s="26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="BD40" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BE40" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BF40" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BG40" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BH40" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BI40" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BJ40" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BK40" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BL40" s="26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="BM40" s="1"/>
+    </row>
+    <row r="41" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="J35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="L35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="M35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="N35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="O35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="P35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Q35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="R35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="T35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="U35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="V35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="W35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="X35" s="26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Y35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Z35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AA35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AB35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AC35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AD35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AE35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AF35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AG35" s="70" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AH35" s="52" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AI35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AJ35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AK35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AL35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM35" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AN35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AO35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AP35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC35" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BE35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BF35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BG35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BH35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BI35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BJ35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL35" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BM35" s="1"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="25"/>
+      <c r="AJ41" s="25"/>
+      <c r="AK41" s="25"/>
+      <c r="AL41" s="25"/>
+      <c r="AM41" s="25"/>
+      <c r="AN41" s="25"/>
+      <c r="AO41" s="25"/>
+      <c r="AP41" s="25"/>
+      <c r="AQ41" s="25"/>
+      <c r="AR41" s="25"/>
+      <c r="AS41" s="25"/>
+      <c r="AT41" s="25"/>
+      <c r="AU41" s="25"/>
+      <c r="AV41" s="25"/>
+      <c r="AW41" s="25"/>
+      <c r="AX41" s="25"/>
+      <c r="AY41" s="25"/>
+      <c r="AZ41" s="25"/>
+      <c r="BA41" s="25"/>
+      <c r="BB41" s="25"/>
+      <c r="BC41" s="25"/>
+      <c r="BD41" s="25"/>
+      <c r="BE41" s="25"/>
+      <c r="BF41" s="25"/>
+      <c r="BG41" s="25"/>
+      <c r="BH41" s="25"/>
+      <c r="BI41" s="25"/>
+      <c r="BJ41" s="25"/>
+      <c r="BK41" s="25"/>
+      <c r="BL41" s="25"/>
+      <c r="BM41" s="1"/>
     </row>
-    <row r="36" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75">
-        <v>43587</v>
-      </c>
-      <c r="G36" s="76">
-        <v>1</v>
-      </c>
-      <c r="H36" s="77"/>
-      <c r="I36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="J36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="L36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="M36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="N36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="O36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="P36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Q36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="R36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="S36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="T36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="U36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="V36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="W36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="X36" s="78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Y36" s="78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Z36" s="78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AA36" s="78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AB36" s="78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AC36" s="78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AD36" s="78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AE36" s="78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AF36" s="78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AG36" s="79">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AH36" s="52" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AI36" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AJ36" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AK36" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AL36" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AM36" s="26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AN36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AO36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AP36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AR36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AS36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AT36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AU36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AV36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AW36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AX36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AY36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BA36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BB36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BC36" s="26" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="BD36" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BE36" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BF36" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BG36" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BH36" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BI36" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BJ36" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BK36" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BL36" s="26" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="BM36" s="1"/>
+    <row r="42" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="45"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
     </row>
-    <row r="37" spans="1:65" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="25"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="25"/>
-      <c r="AP37" s="25"/>
-      <c r="AQ37" s="25"/>
-      <c r="AR37" s="25"/>
-      <c r="AS37" s="25"/>
-      <c r="AT37" s="25"/>
-      <c r="AU37" s="25"/>
-      <c r="AV37" s="25"/>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="25"/>
-      <c r="AY37" s="25"/>
-      <c r="AZ37" s="25"/>
-      <c r="BA37" s="25"/>
-      <c r="BB37" s="25"/>
-      <c r="BC37" s="25"/>
-      <c r="BD37" s="25"/>
-      <c r="BE37" s="25"/>
-      <c r="BF37" s="25"/>
-      <c r="BG37" s="25"/>
-      <c r="BH37" s="25"/>
-      <c r="BI37" s="25"/>
-      <c r="BJ37" s="25"/>
-      <c r="BK37" s="25"/>
-      <c r="BL37" s="25"/>
-      <c r="BM37" s="1"/>
-    </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="45"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
-    </row>
-    <row r="39" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="49"/>
+    <row r="43" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9907,8 +8660,8 @@
     <mergeCell ref="I4:AE4"/>
     <mergeCell ref="AF4:AG4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E36">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="E32:E40 E7:E17 E21:E24 E28">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9921,65 +8674,194 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL37">
-    <cfRule type="expression" dxfId="13" priority="1">
+  <conditionalFormatting sqref="I5:BL41">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 AF4 AH4:AM4">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4 AH4:BL4">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>AND(AF$5&lt;=EOMONTH($I$5,2),AF$5&gt;EOMONTH($I$5,0),AF$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 AF4 AH4:BL4">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL36">
-    <cfRule type="expression" dxfId="9" priority="24" stopIfTrue="1">
+  <conditionalFormatting sqref="I8:BL21 I21:AG26 I27:BL40">
+    <cfRule type="expression" dxfId="14" priority="33" stopIfTrue="1">
       <formula>AND($C8="Risque faible",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="52" stopIfTrue="1">
       <formula>AND($C8="Risque élevé",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="70" stopIfTrue="1">
       <formula>AND($C8="En bonne voie",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="71" stopIfTrue="1">
       <formula>AND($C8="Risque moyen",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="72" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="4" priority="71" stopIfTrue="1">
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="9" priority="80" stopIfTrue="1">
       <formula>AND(#REF!="Risque faible",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="81" stopIfTrue="1">
       <formula>AND(#REF!="Risque élevé",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="82" stopIfTrue="1">
       <formula>AND(#REF!="En bonne voie",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="83" stopIfTrue="1">
       <formula>AND(#REF!="Risque moyen",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="84" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E24">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C1CAC11-8DF9-4E54-A3C3-FB9311A3CDED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:BL26">
+    <cfRule type="expression" dxfId="4" priority="125" stopIfTrue="1">
+      <formula>AND(#REF!="Risque faible",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="126" stopIfTrue="1">
+      <formula>AND(#REF!="Risque élevé",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="127" stopIfTrue="1">
+      <formula>AND(#REF!="En bonne voie",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="128" stopIfTrue="1">
+      <formula>AND(#REF!="Risque moyen",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="129" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E26">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8813BA3E-FA4E-421A-B265-9780753894E7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0C5D18D-D6B4-4822-8E1F-87BECD85D91D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8D69F864-38E8-4DF8-8383-5F0105CF1C35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A220A2C1-77D8-436A-82A6-68B13A33FD24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17224D35-EC15-4D73-80D5-614C166ECA1E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D38A9EC5-E395-4036-BBF6-F0B04952EC7E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E20">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{77B3345E-0987-4161-8ED0-DC1432EE2DD4}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C36" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C40" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
       <formula1>"Objectif,Jalon,En bonne voie, Risque faible, Risque moyen, Risque élevé"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
@@ -10041,10 +8923,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E36</xm:sqref>
+          <xm:sqref>E32:E40 E7:E17 E21:E24 E28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="79" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10060,10 +8942,130 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I8:BL36</xm:sqref>
+          <xm:sqref>I41:BL41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="70" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="dataBar" id="{8C1CAC11-8DF9-4E54-A3C3-FB9311A3CDED}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E22:E24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8813BA3E-FA4E-421A-B265-9780753894E7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E25:E26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0C5D18D-D6B4-4822-8E1F-87BECD85D91D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8D69F864-38E8-4DF8-8383-5F0105CF1C35}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A220A2C1-77D8-436A-82A6-68B13A33FD24}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{17224D35-EC15-4D73-80D5-614C166ECA1E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D38A9EC5-E395-4036-BBF6-F0B04952EC7E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{77B3345E-0987-4161-8ED0-DC1432EE2DD4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E19:E20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="221" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10079,7 +9081,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I37:BL37</xm:sqref>
+          <xm:sqref>I8:BL40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10101,27 +9103,27 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="4" customFormat="1" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
